--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T17:21:43+00:00</t>
+    <t>2023-10-04T17:37:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,22 +364,6 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
   </si>
   <si>
-    <t>ResearchStudy.extension:eclaire-condition-details</t>
-  </si>
-  <si>
-    <t>eclaire-condition-details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-condition-details}
-</t>
-  </si>
-  <si>
-    <t>Précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de précisions sur le sujet concerné par l'essai</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension:eclaire-therapeutic-area</t>
   </si>
   <si>
@@ -964,10 +948,250 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
+    <t xml:space="preserve">value:id}
+</t>
+  </si>
+  <si>
+    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+  </si>
+  <si>
     <t>StudyCondition.code</t>
   </si>
   <si>
     <t>Conditions</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition</t>
+  </si>
+  <si>
+    <t>medDRACondition</t>
+  </si>
+  <si>
+    <t>code MedDRA / MedDRA condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.text</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition</t>
+  </si>
+  <si>
+    <t>diseaseCondition</t>
+  </si>
+  <si>
+    <t>condition de la pathologie / Disease Condition</t>
   </si>
   <si>
     <t>ResearchStudy.contact</t>
@@ -1748,7 +1972,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1757,8 +1981,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1783,7 +2007,7 @@
     <col min="26" max="26" width="71.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="52.18359375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="84.87890625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3101,7 +3325,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>48</v>
@@ -3322,13 +3546,11 @@
         <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3338,25 +3560,29 @@
         <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="J14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>37</v>
       </c>
@@ -3392,19 +3618,19 @@
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -3425,7 +3651,7 @@
         <v>37</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3443,7 +3669,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3456,25 +3682,23 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3511,10 +3735,10 @@
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
@@ -3523,7 +3747,7 @@
         <v>101</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3535,32 +3759,34 @@
         <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>37</v>
       </c>
@@ -3569,10 +3795,10 @@
         <v>35</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>37</v>
@@ -3581,17 +3807,17 @@
         <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3628,19 +3854,19 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3655,31 +3881,29 @@
         <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3691,27 +3915,25 @@
         <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3759,53 +3981,53 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3817,15 +4039,17 @@
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>37</v>
@@ -3862,31 +4086,31 @@
         <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -3895,7 +4119,7 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3906,44 +4130,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
       </c>
@@ -3952,7 +4178,7 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -3967,52 +4193,52 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4023,10 +4249,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4034,7 +4260,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>47</v>
@@ -4043,25 +4269,25 @@
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4071,7 +4297,7 @@
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -4086,13 +4312,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -4110,7 +4336,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4128,10 +4354,10 @@
         <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4142,10 +4368,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4168,19 +4394,19 @@
         <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4193,7 +4419,7 @@
         <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>37</v>
@@ -4205,13 +4431,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4229,7 +4455,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4247,10 +4473,10 @@
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4261,10 +4487,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4287,20 +4513,18 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>37</v>
       </c>
@@ -4312,7 +4536,7 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>37</v>
@@ -4348,7 +4572,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4366,10 +4590,10 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4380,10 +4604,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4406,16 +4630,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4429,7 +4653,7 @@
         <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>37</v>
@@ -4465,7 +4689,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4477,16 +4701,16 @@
         <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4497,10 +4721,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4523,16 +4747,16 @@
         <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4582,7 +4806,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4594,16 +4818,16 @@
         <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4614,12 +4838,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4628,10 +4854,10 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>37</v>
@@ -4640,18 +4866,18 @@
         <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4699,46 +4925,44 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>37</v>
       </c>
@@ -4747,30 +4971,28 @@
         <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>37</v>
       </c>
@@ -4818,53 +5040,53 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4876,15 +5098,17 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>37</v>
@@ -4921,31 +5145,31 @@
         <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -4954,7 +5178,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -4965,44 +5189,46 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>162</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
       </c>
@@ -5011,7 +5237,7 @@
         <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>37</v>
@@ -5026,52 +5252,52 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5082,10 +5308,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5093,7 +5319,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>47</v>
@@ -5102,25 +5328,25 @@
         <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -5130,7 +5356,7 @@
         <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>37</v>
@@ -5145,13 +5371,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5169,7 +5395,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5187,10 +5413,10 @@
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5201,10 +5427,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5227,19 +5453,19 @@
         <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5252,7 +5478,7 @@
         <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>37</v>
@@ -5264,13 +5490,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5288,7 +5514,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5306,10 +5532,10 @@
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5320,10 +5546,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5346,20 +5572,18 @@
         <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5371,7 +5595,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5407,7 +5631,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5425,10 +5649,10 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5439,10 +5663,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5465,16 +5689,16 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5488,7 +5712,7 @@
         <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>37</v>
@@ -5524,7 +5748,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5536,16 +5760,16 @@
         <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -5556,10 +5780,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5582,16 +5806,16 @@
         <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5641,7 +5865,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5653,16 +5877,16 @@
         <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5673,10 +5897,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5690,7 +5914,7 @@
         <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>37</v>
@@ -5699,16 +5923,16 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5758,7 +5982,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5770,19 +5994,19 @@
         <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5790,10 +6014,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5804,10 +6028,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>37</v>
@@ -5816,16 +6040,16 @@
         <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5875,31 +6099,31 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5907,14 +6131,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5933,18 +6157,20 @@
         <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
       </c>
@@ -5992,7 +6218,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6004,19 +6230,19 @@
         <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>37</v>
@@ -6024,46 +6250,44 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
       </c>
@@ -6087,13 +6311,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -6111,42 +6335,42 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6154,31 +6378,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6204,34 +6428,34 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AG38" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>47</v>
@@ -6243,27 +6467,27 @@
         <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>268</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6277,7 +6501,7 @@
         <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>37</v>
@@ -6286,16 +6510,16 @@
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6321,31 +6545,29 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y39" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6360,16 +6582,16 @@
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6377,10 +6599,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6391,7 +6613,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>48</v>
@@ -6403,16 +6625,16 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6438,11 +6660,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6460,13 +6684,13 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>59</v>
@@ -6475,16 +6699,16 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6492,10 +6716,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6509,7 +6733,7 @@
         <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
@@ -6518,16 +6742,16 @@
         <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6553,10 +6777,10 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>37</v>
@@ -6577,7 +6801,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6592,27 +6816,27 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6626,7 +6850,7 @@
         <v>36</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>37</v>
@@ -6635,16 +6859,16 @@
         <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6670,31 +6894,31 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6709,29 +6933,31 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>37</v>
       </c>
@@ -6752,16 +6978,16 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6787,13 +7013,13 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
@@ -6811,7 +7037,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6826,19 +7052,19 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -6846,7 +7072,7 @@
         <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6857,25 +7083,25 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>152</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6926,22 +7152,22 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>309</v>
+        <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
@@ -6950,7 +7176,7 @@
         <v>68</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>37</v>
@@ -6958,21 +7184,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -6984,15 +7210,17 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7029,31 +7257,31 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7062,7 +7290,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7073,14 +7301,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7096,21 +7324,23 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
       </c>
@@ -7146,19 +7376,19 @@
         <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7170,16 +7400,16 @@
         <v>59</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7190,14 +7420,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7209,7 +7437,7 @@
         <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
@@ -7218,13 +7446,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7275,19 +7503,19 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -7296,7 +7524,7 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7307,21 +7535,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7330,19 +7558,19 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7380,31 +7608,31 @@
         <v>37</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
@@ -7413,7 +7641,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7427,7 +7655,7 @@
         <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7438,7 +7666,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -7450,7 +7678,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>325</v>
@@ -7458,8 +7686,12 @@
       <c r="M49" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7483,13 +7715,11 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
@@ -7507,28 +7737,28 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>328</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7539,10 +7769,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7553,7 +7783,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7562,19 +7792,19 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7624,13 +7854,13 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>59</v>
@@ -7639,16 +7869,16 @@
         <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7656,10 +7886,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7670,7 +7900,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7682,18 +7912,20 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7717,10 +7949,10 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>37</v>
@@ -7741,13 +7973,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>59</v>
@@ -7756,16 +7988,16 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7773,10 +8005,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7787,10 +8019,10 @@
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
@@ -7799,18 +8031,20 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
       </c>
@@ -7834,13 +8068,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -7858,13 +8092,13 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>59</v>
@@ -7873,13 +8107,13 @@
         <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -7890,10 +8124,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7907,27 +8141,29 @@
         <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
@@ -7975,7 +8211,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -7990,16 +8226,16 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8007,24 +8243,24 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>358</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>37</v>
@@ -8033,18 +8269,20 @@
         <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
       </c>
@@ -8092,56 +8330,58 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>368</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>37</v>
@@ -8150,16 +8390,16 @@
         <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8185,13 +8425,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8209,42 +8449,42 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>375</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8255,7 +8495,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>48</v>
@@ -8267,17 +8507,15 @@
         <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>219</v>
+        <v>380</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8326,42 +8564,42 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>382</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8381,20 +8619,18 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>151</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>152</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8443,7 +8679,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>154</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8452,37 +8688,37 @@
         <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>388</v>
+        <v>68</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>382</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8492,25 +8728,25 @@
         <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>391</v>
+        <v>95</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>392</v>
+        <v>96</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>393</v>
+        <v>157</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8548,19 +8784,19 @@
         <v>37</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>158</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8572,32 +8808,34 @@
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>394</v>
+        <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>388</v>
+        <v>61</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>37</v>
       </c>
@@ -8609,26 +8847,24 @@
         <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>178</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8653,13 +8889,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8677,42 +8913,42 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>158</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>404</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8723,7 +8959,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8732,19 +8968,19 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>406</v>
+        <v>151</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8794,13 +9030,13 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>59</v>
@@ -8809,13 +9045,13 @@
         <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -8826,10 +9062,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8849,16 +9085,16 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8909,7 +9145,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8921,19 +9157,19 @@
         <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8941,10 +9177,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8955,7 +9191,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
@@ -8967,15 +9203,17 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9024,22 +9262,22 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>159</v>
+        <v>405</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
@@ -9048,7 +9286,7 @@
         <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>37</v>
+        <v>411</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
@@ -9056,14 +9294,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9079,19 +9317,19 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>96</v>
+        <v>413</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9117,10 +9355,10 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>37</v>
@@ -9129,19 +9367,19 @@
         <v>37</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9153,19 +9391,19 @@
         <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9173,14 +9411,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9190,29 +9428,27 @@
         <v>36</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9236,13 +9472,13 @@
         <v>37</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>37</v>
@@ -9260,7 +9496,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9272,16 +9508,16 @@
         <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9292,10 +9528,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9303,13 +9539,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>37</v>
@@ -9318,7 +9554,7 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>156</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>426</v>
@@ -9327,7 +9563,7 @@
         <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>242</v>
+        <v>428</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9377,10 +9613,10 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>47</v>
@@ -9392,7 +9628,7 @@
         <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
@@ -9401,7 +9637,7 @@
         <v>68</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9409,42 +9645,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>37</v>
+        <v>432</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>272</v>
+        <v>436</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9494,46 +9730,46 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>277</v>
+        <v>438</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>37</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>37</v>
+        <v>442</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9549,19 +9785,19 @@
         <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9611,7 +9847,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9623,30 +9859,30 @@
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>37</v>
+        <v>446</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>68</v>
+        <v>447</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>37</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9657,27 +9893,29 @@
         <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>214</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -9726,42 +9964,42 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>37</v>
+        <v>455</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>37</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9781,18 +10019,20 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>156</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>157</v>
+        <v>459</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -9841,7 +10081,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>159</v>
+        <v>457</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -9850,37 +10090,37 @@
         <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>37</v>
+        <v>461</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>68</v>
+        <v>462</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>37</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9890,25 +10130,25 @@
         <v>36</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>95</v>
+        <v>465</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>96</v>
+        <v>466</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>162</v>
+        <v>467</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9946,19 +10186,19 @@
         <v>37</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>163</v>
+        <v>464</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -9970,66 +10210,64 @@
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>61</v>
+        <v>462</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>37</v>
+        <v>469</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>37</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>37</v>
       </c>
@@ -10053,13 +10291,13 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>37</v>
+        <v>474</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>37</v>
+        <v>475</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
@@ -10077,42 +10315,42 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>37</v>
+        <v>476</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>37</v>
+        <v>477</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>37</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10123,7 +10361,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>37</v>
@@ -10135,16 +10373,16 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>156</v>
+        <v>480</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10194,13 +10432,13 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>59</v>
@@ -10209,13 +10447,13 @@
         <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>68</v>
+        <v>485</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10226,10 +10464,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10240,7 +10478,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -10252,17 +10490,15 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>487</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>37</v>
@@ -10287,13 +10523,13 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>454</v>
+        <v>37</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
@@ -10311,13 +10547,13 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>59</v>
@@ -10326,23 +10562,1425 @@
         <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="AO73" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10352,7 +11990,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T17:37:18+00:00</t>
+    <t>2023-10-05T13:58:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T13:58:44+00:00</t>
+    <t>2023-10-05T15:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -968,221 +968,6 @@
   </si>
   <si>
     <t>code MedDRA / MedDRA condition</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.version</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.code</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.display</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.userSelected</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.text</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ResearchStudy.condition:diseaseCondition</t>
@@ -1972,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1981,8 +1766,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.55078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.16796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -7072,9 +6857,11 @@
         <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>37</v>
       </c>
@@ -7083,27 +6870,29 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -7128,13 +6917,13 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -7152,46 +6941,46 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>154</v>
+        <v>293</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7201,26 +6990,24 @@
         <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7257,19 +7044,19 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7281,19 +7068,19 @@
         <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>37</v>
@@ -7301,10 +7088,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7315,7 +7102,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7324,23 +7111,19 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>312</v>
+        <v>152</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>37</v>
       </c>
@@ -7388,28 +7171,28 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7420,21 +7203,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7446,15 +7229,17 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7491,31 +7276,31 @@
         <v>37</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -7524,7 +7309,7 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7535,24 +7320,26 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
@@ -7561,17 +7348,15 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7608,16 +7393,16 @@
         <v>37</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>158</v>
@@ -7641,7 +7426,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7652,10 +7437,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7678,20 +7463,18 @@
         <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7715,11 +7498,13 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
@@ -7737,7 +7522,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7755,10 +7540,10 @@
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>332</v>
+        <v>68</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7769,10 +7554,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7783,7 +7568,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7795,17 +7580,15 @@
         <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7854,28 +7637,28 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>331</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -7886,10 +7669,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7900,7 +7683,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7909,23 +7692,21 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7973,13 +7754,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>59</v>
@@ -7988,16 +7769,16 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>348</v>
+        <v>68</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -8005,10 +7786,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8019,7 +7800,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -8031,20 +7812,18 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>37</v>
       </c>
@@ -8068,10 +7847,10 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>37</v>
@@ -8092,13 +7871,13 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>59</v>
@@ -8107,16 +7886,16 @@
         <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
@@ -8124,10 +7903,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8138,10 +7917,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -8150,20 +7929,18 @@
         <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
@@ -8187,13 +7964,13 @@
         <v>37</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>37</v>
@@ -8211,13 +7988,13 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>59</v>
@@ -8226,13 +8003,13 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8243,10 +8020,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8260,29 +8037,27 @@
         <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>151</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>37</v>
       </c>
@@ -8330,7 +8105,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8345,16 +8120,16 @@
         <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>37</v>
+        <v>358</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>375</v>
+        <v>68</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8362,16 +8137,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8390,16 +8163,16 @@
         <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8425,13 +8198,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8449,7 +8222,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8461,44 +8234,44 @@
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>272</v>
+        <v>367</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>292</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>37</v>
+        <v>371</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
@@ -8507,15 +8280,17 @@
         <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>380</v>
+        <v>204</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8564,42 +8339,42 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>37</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8613,24 +8388,26 @@
         <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>152</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8679,7 +8456,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>154</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8688,25 +8465,25 @@
         <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>68</v>
+        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>37</v>
+        <v>384</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>37</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -8718,14 +8495,14 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -8734,19 +8511,19 @@
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>157</v>
+        <v>389</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8784,58 +8561,56 @@
         <v>37</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>386</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>37</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>37</v>
       </c>
@@ -8844,7 +8619,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>48</v>
@@ -8853,18 +8628,20 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8913,7 +8690,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>158</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8925,30 +8702,30 @@
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>37</v>
+        <v>397</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>37</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>37</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8971,16 +8748,16 @@
         <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9006,13 +8783,13 @@
         <v>37</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>37</v>
@@ -9030,7 +8807,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -9045,27 +8822,27 @@
         <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>37</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9085,18 +8862,20 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -9145,7 +8924,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -9157,16 +8936,16 @@
         <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>402</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>37</v>
+        <v>413</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>403</v>
+        <v>61</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9177,10 +8956,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9203,17 +8982,15 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9262,7 +9039,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9277,7 +9054,7 @@
         <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
@@ -9286,7 +9063,7 @@
         <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
@@ -9294,10 +9071,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9308,7 +9085,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9317,20 +9094,18 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
+        <v>152</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -9355,10 +9130,10 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>37</v>
@@ -9379,31 +9154,31 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>412</v>
+        <v>154</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9411,14 +9186,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9428,25 +9203,25 @@
         <v>36</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>419</v>
+        <v>96</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>420</v>
+        <v>157</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9472,31 +9247,31 @@
         <v>37</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>422</v>
+        <v>37</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>418</v>
+        <v>158</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9508,16 +9283,16 @@
         <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9528,44 +9303,46 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I65" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>37</v>
       </c>
@@ -9613,31 +9390,31 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>430</v>
+        <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9645,42 +9422,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>433</v>
+        <v>151</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>436</v>
+        <v>237</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9730,46 +9507,46 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>438</v>
+        <v>68</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>440</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>442</v>
+        <v>37</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9785,19 +9562,19 @@
         <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9847,7 +9624,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9859,30 +9636,30 @@
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>447</v>
+        <v>272</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>449</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9896,25 +9673,25 @@
         <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9964,7 +9741,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9976,30 +9753,30 @@
         <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>454</v>
+        <v>68</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>456</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10010,7 +9787,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -10019,20 +9796,18 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -10081,42 +9856,42 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>462</v>
+        <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>463</v>
+        <v>37</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>456</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10127,29 +9902,27 @@
         <v>35</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>465</v>
+        <v>151</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>466</v>
+        <v>152</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -10198,53 +9971,53 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>462</v>
+        <v>68</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>469</v>
+        <v>37</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>470</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
@@ -10253,19 +10026,19 @@
         <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>472</v>
+        <v>96</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>473</v>
+        <v>157</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10291,70 +10064,70 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>474</v>
+        <v>37</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>475</v>
+        <v>37</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>471</v>
+        <v>158</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>476</v>
+        <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>477</v>
+        <v>37</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>478</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10367,24 +10140,26 @@
         <v>37</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>480</v>
+        <v>95</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>37</v>
       </c>
@@ -10432,7 +10207,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10444,16 +10219,16 @@
         <v>59</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>484</v>
+        <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10464,10 +10239,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10478,7 +10253,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -10490,15 +10265,17 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>487</v>
+        <v>151</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>37</v>
@@ -10547,13 +10324,13 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>59</v>
@@ -10562,7 +10339,7 @@
         <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>37</v>
@@ -10571,7 +10348,7 @@
         <v>68</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>491</v>
+        <v>37</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>37</v>
@@ -10579,10 +10356,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10605,15 +10382,17 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>152</v>
+        <v>455</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>37</v>
@@ -10638,13 +10417,13 @@
         <v>37</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>37</v>
+        <v>457</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>37</v>
+        <v>458</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>37</v>
@@ -10662,7 +10441,7 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>154</v>
+        <v>454</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
@@ -10671,1316 +10450,29 @@
         <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO85" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO85">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11990,7 +10482,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T15:17:51+00:00</t>
+    <t>2023-10-06T06:48:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1014,10 +1014,58 @@
 </t>
   </si>
   <si>
-    <t>type de contact : Public ou Scientific</t>
+    <t>Type de contact : Public ou Scientific</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-address</t>
+  </si>
+  <si>
+    <t>eclaire-contact-address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-address}
+</t>
+  </si>
+  <si>
+    <t>Adresse du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer l'adresse du contact</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-affiliation</t>
+  </si>
+  <si>
+    <t>eclaire-contact-affiliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-affiliation}
+</t>
+  </si>
+  <si>
+    <t>Affiliation du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer l'affiliation du contact</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-name</t>
+  </si>
+  <si>
+    <t>eclaire-contact-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-name}
+</t>
+  </si>
+  <si>
+    <t>Nom du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le nom de contact</t>
   </si>
   <si>
     <t>ResearchStudy.contact.name</t>
@@ -1757,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1766,7 +1814,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.40234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7440,9 +7488,11 @@
         <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7454,26 +7504,24 @@
         <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>37</v>
@@ -7522,19 +7570,19 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>325</v>
+        <v>158</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -7543,7 +7591,7 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7557,9 +7605,11 @@
         <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>37</v>
       </c>
@@ -7568,25 +7618,25 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7637,7 +7687,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>330</v>
+        <v>158</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7649,16 +7699,16 @@
         <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>331</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -7669,12 +7719,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7683,7 +7735,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7695,17 +7747,15 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>338</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -7754,7 +7804,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>158</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7766,19 +7816,19 @@
         <v>59</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>340</v>
+        <v>37</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7786,10 +7836,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7800,7 +7850,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7812,16 +7862,16 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7847,10 +7897,10 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>37</v>
@@ -7871,13 +7921,13 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>59</v>
@@ -7886,16 +7936,16 @@
         <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>345</v>
+        <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>346</v>
+        <v>37</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
@@ -7903,10 +7953,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7920,7 +7970,7 @@
         <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -7929,17 +7979,15 @@
         <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -7964,13 +8012,13 @@
         <v>37</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>37</v>
@@ -7988,7 +8036,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -8000,16 +8048,16 @@
         <v>59</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>352</v>
+        <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8020,10 +8068,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8034,10 +8082,10 @@
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>37</v>
@@ -8046,16 +8094,16 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8105,13 +8153,13 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>59</v>
@@ -8120,7 +8168,7 @@
         <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>37</v>
@@ -8129,7 +8177,7 @@
         <v>68</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8137,14 +8185,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8154,7 +8202,7 @@
         <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>37</v>
@@ -8163,16 +8211,16 @@
         <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8198,10 +8246,10 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>37</v>
@@ -8222,7 +8270,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8234,44 +8282,44 @@
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>369</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
@@ -8280,16 +8328,16 @@
         <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8315,13 +8363,13 @@
         <v>37</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>37</v>
@@ -8339,42 +8387,42 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>377</v>
+        <v>37</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>378</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8394,19 +8442,19 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>214</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8456,7 +8504,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8468,44 +8516,44 @@
         <v>59</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>383</v>
+        <v>68</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>385</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>
@@ -8514,16 +8562,16 @@
         <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>244</v>
+        <v>380</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8573,13 +8621,13 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>59</v>
@@ -8588,41 +8636,41 @@
         <v>219</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
@@ -8631,16 +8679,16 @@
         <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8690,42 +8738,42 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8739,7 +8787,7 @@
         <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>37</v>
@@ -8748,16 +8796,16 @@
         <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8783,13 +8831,13 @@
         <v>37</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>37</v>
@@ -8807,7 +8855,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8819,30 +8867,30 @@
         <v>59</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8853,7 +8901,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -8862,19 +8910,19 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>412</v>
+        <v>244</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8924,42 +8972,42 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>37</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8973,24 +9021,26 @@
         <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9039,7 +9089,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9051,30 +9101,30 @@
         <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>68</v>
+        <v>406</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9094,18 +9144,20 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -9130,13 +9182,13 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -9154,7 +9206,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>154</v>
+        <v>415</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9163,37 +9215,37 @@
         <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>37</v>
+        <v>420</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>37</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9212,16 +9264,16 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>96</v>
+        <v>425</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>157</v>
+        <v>426</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>98</v>
+        <v>427</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9259,19 +9311,19 @@
         <v>37</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>158</v>
+        <v>423</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9283,16 +9335,16 @@
         <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>37</v>
+        <v>428</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>61</v>
+        <v>429</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9303,14 +9355,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9323,26 +9375,22 @@
         <v>37</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>95</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
       </c>
@@ -9390,7 +9438,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -9402,19 +9450,19 @@
         <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9422,10 +9470,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9433,7 +9481,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>47</v>
@@ -9451,14 +9499,12 @@
         <v>151</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>152</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -9507,22 +9553,22 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>428</v>
+        <v>154</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>431</v>
+        <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>37</v>
@@ -9531,7 +9577,7 @@
         <v>68</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9539,21 +9585,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -9565,16 +9611,16 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>96</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
+        <v>157</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9612,43 +9658,43 @@
         <v>37</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>433</v>
+        <v>158</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>436</v>
+        <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>437</v>
+        <v>37</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9663,37 +9709,39 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>37</v>
+        <v>439</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>37</v>
       </c>
@@ -9741,31 +9789,31 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>441</v>
+        <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>442</v>
+        <v>37</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>37</v>
@@ -9784,10 +9832,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -9799,7 +9847,7 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>444</v>
@@ -9807,7 +9855,9 @@
       <c r="M69" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -9859,10 +9909,10 @@
         <v>443</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>59</v>
@@ -9880,7 +9930,7 @@
         <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>37</v>
@@ -9888,10 +9938,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9914,15 +9964,17 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>152</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -9971,7 +10023,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>154</v>
+        <v>448</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -9980,22 +10032,22 @@
         <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>37</v>
+        <v>451</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>37</v>
+        <v>452</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>37</v>
@@ -10003,21 +10055,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
@@ -10029,16 +10081,16 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>96</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>157</v>
+        <v>455</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10076,43 +10128,43 @@
         <v>37</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>158</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>37</v>
+        <v>456</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>37</v>
+        <v>457</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>37</v>
@@ -10120,14 +10172,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10140,26 +10192,22 @@
         <v>37</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>95</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>37</v>
       </c>
@@ -10207,7 +10255,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10219,16 +10267,16 @@
         <v>59</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>37</v>
+        <v>461</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10239,10 +10287,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10268,14 +10316,12 @@
         <v>151</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>152</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>37</v>
@@ -10324,7 +10370,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>450</v>
+        <v>154</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10333,13 +10379,13 @@
         <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>453</v>
+        <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>37</v>
@@ -10356,21 +10402,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>37</v>
@@ -10382,16 +10428,16 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>96</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>157</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10417,62 +10463,415 @@
         <v>37</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>457</v>
+        <v>37</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>458</v>
+        <v>37</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>454</v>
+        <v>158</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AK76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AN74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO74" t="s" s="2">
+      <c r="AN77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO74">
+  <autoFilter ref="A1:AO77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10482,7 +10881,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T06:48:32+00:00</t>
+    <t>2023-10-06T19:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -970,6 +970,79 @@
     <t>code MedDRA / MedDRA condition</t>
   </si>
   <si>
+    <t>ResearchStudy.condition:medDRACondition.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.id</t>
+  </si>
+  <si>
+    <t>meddra-condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.text</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>ResearchStudy.condition:diseaseCondition</t>
   </si>
   <si>
@@ -977,6 +1050,21 @@
   </si>
   <si>
     <t>condition de la pathologie / Disease Condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.id</t>
+  </si>
+  <si>
+    <t>disease-condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.text</t>
   </si>
   <si>
     <t>ResearchStudy.contact</t>
@@ -1805,7 +1893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6905,42 +6993,38 @@
         <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C44" t="s" s="2">
         <v>306</v>
       </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>152</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -6950,7 +7034,7 @@
         <v>37</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>37</v>
@@ -6965,13 +7049,13 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -6989,34 +7073,34 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>292</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -7024,11 +7108,11 @@
         <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7038,24 +7122,26 @@
         <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7092,19 +7178,19 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7116,19 +7202,19 @@
         <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>313</v>
+        <v>37</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>37</v>
@@ -7136,10 +7222,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7150,7 +7236,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7159,19 +7245,23 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
       </c>
@@ -7219,28 +7309,28 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>154</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7251,21 +7341,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7274,21 +7364,23 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7324,40 +7416,40 @@
         <v>37</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>158</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7368,13 +7460,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>37</v>
@@ -7384,7 +7476,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>48</v>
@@ -7393,18 +7485,20 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7429,13 +7523,13 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>37</v>
@@ -7453,7 +7547,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>158</v>
+        <v>293</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7465,46 +7559,44 @@
         <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
@@ -7513,13 +7605,13 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>151</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>153</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7531,7 +7623,7 @@
         <v>37</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>37</v>
@@ -7570,19 +7662,19 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -7591,7 +7683,7 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7602,26 +7694,24 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>37</v>
@@ -7630,15 +7720,17 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7675,16 +7767,16 @@
         <v>37</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>158</v>
@@ -7708,7 +7800,7 @@
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -7719,14 +7811,12 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7735,7 +7825,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7744,19 +7834,23 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7804,7 +7898,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7816,16 +7910,16 @@
         <v>59</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -7839,7 +7933,7 @@
         <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7865,15 +7959,17 @@
         <v>151</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
       </c>
@@ -7921,7 +8017,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7939,10 +8035,10 @@
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -7953,10 +8049,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7970,7 +8066,7 @@
         <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -7979,13 +8075,13 @@
         <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8036,7 +8132,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -8048,19 +8144,19 @@
         <v>59</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>346</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>37</v>
+        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>348</v>
+        <v>68</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8068,10 +8164,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8082,7 +8178,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8094,17 +8190,15 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>351</v>
+        <v>152</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -8153,22 +8247,22 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>349</v>
+        <v>154</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>354</v>
+        <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>37</v>
@@ -8177,7 +8271,7 @@
         <v>68</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>355</v>
+        <v>37</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8185,14 +8279,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8208,19 +8302,19 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>96</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
+        <v>157</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8246,10 +8340,10 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>359</v>
+        <v>37</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>37</v>
@@ -8258,19 +8352,19 @@
         <v>37</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>158</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8282,19 +8376,19 @@
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>360</v>
+        <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>37</v>
@@ -8302,12 +8396,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>37</v>
       </c>
@@ -8316,7 +8412,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>48</v>
@@ -8325,20 +8421,18 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8363,13 +8457,13 @@
         <v>37</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>37</v>
@@ -8387,7 +8481,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>362</v>
+        <v>158</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8399,16 +8493,16 @@
         <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>37</v>
@@ -8419,12 +8513,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>37</v>
       </c>
@@ -8445,17 +8541,15 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8504,31 +8598,31 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>373</v>
+        <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>37</v>
@@ -8536,21 +8630,23 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D58" t="s" s="2">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>48</v>
@@ -8559,20 +8655,18 @@
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>37</v>
@@ -8621,7 +8715,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>375</v>
+        <v>158</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8633,34 +8727,36 @@
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>384</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D59" t="s" s="2">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8676,20 +8772,18 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>204</v>
+        <v>362</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8738,42 +8832,42 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>385</v>
+        <v>158</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>392</v>
+        <v>37</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>393</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8787,7 +8881,7 @@
         <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>37</v>
@@ -8796,16 +8890,16 @@
         <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8855,7 +8949,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8867,30 +8961,30 @@
         <v>59</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>398</v>
+        <v>68</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>399</v>
+        <v>37</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>400</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8901,7 +8995,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -8913,17 +9007,15 @@
         <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -8972,42 +9064,42 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>407</v>
+        <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>400</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9021,25 +9113,25 @@
         <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>244</v>
+        <v>382</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9089,7 +9181,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9101,30 +9193,30 @@
         <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>406</v>
+        <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>414</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9135,7 +9227,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9150,10 +9242,10 @@
         <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>267</v>
@@ -9185,10 +9277,10 @@
         <v>282</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>419</v>
+        <v>37</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -9206,13 +9298,13 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>59</v>
@@ -9221,7 +9313,7 @@
         <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>271</v>
@@ -9230,18 +9322,18 @@
         <v>272</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>422</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9255,25 +9347,25 @@
         <v>36</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9299,13 +9391,13 @@
         <v>37</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>37</v>
+        <v>394</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>37</v>
@@ -9323,7 +9415,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9338,13 +9430,13 @@
         <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9355,10 +9447,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9369,10 +9461,10 @@
         <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>37</v>
@@ -9381,15 +9473,17 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
@@ -9438,13 +9532,13 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>59</v>
@@ -9453,7 +9547,7 @@
         <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
@@ -9462,7 +9556,7 @@
         <v>68</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9470,41 +9564,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>151</v>
+        <v>406</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -9553,53 +9649,53 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>154</v>
+        <v>404</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>68</v>
+        <v>411</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>37</v>
+        <v>412</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>37</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>94</v>
+        <v>415</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -9608,19 +9704,19 @@
         <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>96</v>
+        <v>416</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>157</v>
+        <v>417</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9658,90 +9754,88 @@
         <v>37</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>158</v>
+        <v>414</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>61</v>
+        <v>420</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>37</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>439</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
       </c>
@@ -9789,42 +9883,42 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>61</v>
+        <v>427</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>37</v>
+        <v>428</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9832,7 +9926,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>47</v>
@@ -9844,19 +9938,19 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9906,10 +10000,10 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>47</v>
@@ -9918,30 +10012,30 @@
         <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>68</v>
+        <v>435</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9952,28 +10046,28 @@
         <v>35</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>173</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10023,42 +10117,42 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>272</v>
+        <v>435</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>37</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10078,19 +10172,19 @@
         <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10116,13 +10210,13 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
@@ -10140,7 +10234,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10155,27 +10249,27 @@
         <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>37</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10198,15 +10292,17 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>37</v>
@@ -10255,7 +10351,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10270,13 +10366,13 @@
         <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10287,10 +10383,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10301,7 +10397,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -10313,13 +10409,13 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>151</v>
+        <v>460</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>152</v>
+        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>153</v>
+        <v>462</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10370,22 +10466,22 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>154</v>
+        <v>459</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>37</v>
@@ -10394,7 +10490,7 @@
         <v>68</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>37</v>
+        <v>464</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>37</v>
@@ -10402,21 +10498,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>37</v>
@@ -10428,17 +10524,15 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>37</v>
@@ -10475,31 +10569,31 @@
         <v>37</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
@@ -10508,7 +10602,7 @@
         <v>37</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>37</v>
@@ -10519,14 +10613,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>439</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10539,26 +10633,24 @@
         <v>37</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>440</v>
+        <v>96</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>441</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="O75" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>37</v>
       </c>
@@ -10594,19 +10686,19 @@
         <v>37</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>442</v>
+        <v>158</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
@@ -10638,44 +10730,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
       </c>
@@ -10723,28 +10817,28 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>37</v>
@@ -10755,10 +10849,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10766,7 +10860,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>47</v>
@@ -10781,16 +10875,16 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10816,34 +10910,34 @@
         <v>37</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AG77" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>47</v>
@@ -10855,23 +10949,957 @@
         <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AN77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO77" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO77">
+  <autoFilter ref="A1:AO85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10881,7 +11909,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T19:29:53+00:00</t>
+    <t>2023-10-09T08:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
